--- a/BackTest/2020-01-23 BackTest IPX.xlsx
+++ b/BackTest/2020-01-23 BackTest IPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-45830.82510806901</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-56274.95720806901</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-55575.17750806901</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-54175.61810806901</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-56974.73690806901</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-59792.94210806901</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58393.38270806901</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-53500.14700806901</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-57016.75800806902</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49423.99520806901</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-37309.95880806902</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-32351.28060806902</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-22642.00310806902</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-33688.22780806902</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-41630.68860806902</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-45617.75500806901</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>226.1177919309848</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3762.818991930985</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5862.158091930985</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-55726.67940806902</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-52927.56080806901</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-188323.337908069</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-196720.693808069</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-197420.473408069</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-193117.858108069</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-198797.081808069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-198797.081808069</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-201686.730708069</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-197352.091408069</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-202737.193308069</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-201337.634008069</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-203436.973008069</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-252289.946408069</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-254389.285308069</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-249488.044608069</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-247301.531908069</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-251512.014308069</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-251512.014308069</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-251512.014308069</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-252211.793908069</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-252211.793908069</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-252211.793908069</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-253611.353208069</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-257273.460008069</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-257273.460008069</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-258673.019208069</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-260993.305308069</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-305833.977408069</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-311109.946108069</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-315301.9049080691</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-320297.6599080691</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-321097.4395080691</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-321097.4395080691</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-324254.7733080691</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-324254.7733080691</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-329378.4546080691</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-329378.4546080691</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-329378.4546080691</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-339451.2382080691</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-337351.8992080691</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-337351.8992080691</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-337351.8992080691</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-337351.8992080691</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-337351.8992080691</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-323796.5202080691</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-323796.5202080691</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-325930.0037080691</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-321706.6900080691</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-325963.4694080691</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-325963.4694080691</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-325963.4694080691</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-326663.2490080691</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-325263.6898080691</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-327361.7180080691</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-325262.3791080691</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-321717.7181080691</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-324516.8366080691</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-324516.8366080691</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-324516.8366080691</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-328015.7349080691</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-324516.8366080691</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-327315.9552080691</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-324417.231608069</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-327244.4012080691</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-324410.8693080691</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-325810.4286080691</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-320827.1535080691</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-322226.7127080691</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-322226.7127080691</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-326475.6015080691</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-323596.8308080691</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-327865.3901080691</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-323673.4682080691</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-326472.5868080691</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-326472.5868080691</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-329271.7053080691</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-329271.7053080691</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-327872.146108069</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-327872.146108069</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-327872.146108069</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-327872.146108069</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-327872.146108069</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-330053.6818080691</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-327263.5323080691</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-293161.550308069</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-292461.770708069</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-292461.770708069</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-296057.055408069</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-296057.055408069</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-295357.275808069</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-295357.275808069</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-293957.716508069</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-296057.055508069</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-293257.937008069</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-297466.100008069</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-297466.100008069</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-300365.711008069</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-298265.584208069</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-302535.3435080689</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-301135.7842080689</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-306104.3782080689</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-305404.5986080689</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-305404.5986080689</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-421745.2865080689</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-416841.9189080689</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-421086.4272080689</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-420386.6476080689</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-425310.6790080689</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-423148.8558080689</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-426645.6246080689</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-426645.6246080689</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-430994.5969080689</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-433093.9359080689</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-430229.9764080689</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-426031.2984080689</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-424631.7391080689</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-431063.2002080689</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-431063.2002080689</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-431063.2002080689</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-431697.2568080689</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-431697.2568080689</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-426751.7198080689</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-427451.4994080689</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-427451.4994080689</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-423952.6011080689</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-424652.3807080689</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-422553.0417080689</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-423952.6010080689</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-422553.0418080689</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-420391.4720080689</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-424767.9887080689</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-422569.2091080689</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-391215.4102080688</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-392614.9695080688</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-356971.1410080688</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-361841.9176080688</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-363959.1356080688</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-368916.9884080688</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-368217.2088080688</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-370347.2836080688</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-370347.2836080688</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-360616.4490080688</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-357087.1516080688</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-385548.9339080688</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-386948.4932080688</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-381305.2960080688</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-383404.6348080689</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-381305.2958080689</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-381305.2958080689</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-379205.9568080689</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-379205.9568080689</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-379205.9568080689</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-385599.4838080689</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-384899.7042080689</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-384899.7042080689</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-386299.2634080689</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-379899.7041080689</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-379899.7041080689</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-374254.3810080689</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-374254.3810080689</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-372846.3217080689</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-376442.7777080689</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-375734.4981080689</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-381358.6429080689</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-381358.6429080689</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-384906.5526080689</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-382107.4340080689</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-382107.4340080689</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-390212.1732080689</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-395213.4194080689</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-391714.5211080689</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-391714.5211080689</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-391714.5211080689</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-393813.8601080689</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-389516.6355080688</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-387335.5628080688</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-382744.8397080688</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-385543.9583080688</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-385543.9583080688</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-384144.3990080688</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-381283.8400080688</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-377784.9419080688</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-373360.8629757178</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-374060.6425757178</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-374060.6425757178</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-374060.6425757178</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-373360.8629757178</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-373360.8629757178</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-373360.8629757178</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-374060.6425757178</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-368396.3713757178</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-368396.3713757178</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-381196.1509757178</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-375549.0621757178</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-377648.4011757178</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-377648.4011757178</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-374849.2826757178</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-362537.8114757178</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-365336.9300757178</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-365336.9300757178</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-362546.2046757178</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-364668.0688757178</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-363268.5096757178</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-359769.6114757178</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-354842.4404757178</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-354842.4404757178</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-354842.4404757178</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-354842.4404757178</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-356241.9996757178</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-351968.3288757178</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-351968.3288757178</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-349868.9898757178</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-345612.3791757178</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-347723.3692757178</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-350537.7236757178</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-350537.7236757178</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-347038.8253757178</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-372723.3621757178</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-353344.1690757179</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-346321.3173757179</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-346321.3173757179</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-343522.1987757179</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-347792.2927757179</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-344247.9931757178</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-342848.4338757178</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-341448.8746757178</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-339343.6547757178</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-341442.9936757177</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-340043.4344757177</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-340043.4344757177</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-342230.6420757177</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-345811.8158757177</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-344412.2565757177</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-344412.2565757177</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-343012.6973757177</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-343012.6973757177</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-345810.1739757177</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-345110.3943757177</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-340109.9279757177</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-340109.9279757177</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-340109.9279757177</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-340109.9279757177</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-342909.0465757177</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-340709.6739757177</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-340709.6739757177</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-340709.6739757177</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-338566.9534757177</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-340706.8609757177</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-340706.8609757177</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-340706.8609757177</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-340706.8609757177</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-337907.7423757177</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-333709.0643757177</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-326177.0250757177</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-324013.6452757177</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-320511.4796757177</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-320511.4796757177</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-325956.5327757177</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-321682.5050757177</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-325943.1111757177</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-324543.5518757176</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-326690.1528757177</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-324590.8138757177</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-322397.5319757177</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-322397.5319757177</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-317356.5223757177</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-320155.6409757177</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-325746.9773757177</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-325047.1977757177</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-327243.1738757177</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-329795.2507757177</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-331965.6345757177</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-331965.6345757177</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-331965.6345757177</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-334939.2493757177</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-327879.3878757177</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-325732.8573757177</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-325033.0777757177</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-348584.5380757176</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-354293.7887757176</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-354293.7887757176</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-354293.7887757176</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-354293.7887757176</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-354293.7887757176</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-349762.7704757176</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-348363.2112757176</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-353204.8255757176</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-353204.8255757176</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-353204.8255757176</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-349705.9272757176</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-349705.9272757176</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-349705.9272757176</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-351807.7392757176</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-350408.1799757176</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-360099.7310757175</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-341746.0720757176</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-325225.3896757176</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-327324.7286757175</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-328024.5082757176</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-324525.6099757176</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-319473.2946757175</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-319473.2946757175</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-323671.9726757176</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-323671.9726757176</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-320173.0743757176</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-322272.4131757176</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-322272.4131757176</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-322272.4131757176</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-322272.4131757176</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-320872.8538757176</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-337170.3005757176</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-337170.3005757176</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-337170.3005757176</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-332924.6712757176</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-328652.9950757176</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-324456.4541757176</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-322357.1151757176</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-284265.9917757176</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-284265.9917757176</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-281426.4610757176</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-281426.4610757176</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-283589.5343757176</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-305992.9590757176</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-301720.3114757176</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-297521.6335757176</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>-300394.3307757176</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>-307215.6806757175</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>-304321.5404757175</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>-302921.9812757175</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>-310670.4781757175</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-314945.1140757175</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>-312117.0004757175</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>-313516.5597757176</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>-314216.3393757176</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>-314216.3393757176</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>-314216.3393757176</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>-315615.8985757176</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>-315615.8985757176</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>-314916.1189757176</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>-314216.3393757176</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>-314216.3393757176</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>-317715.2376757176</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-312812.2286757175</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-312812.2286757175</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-312112.4490757175</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-314211.7880757175</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-309255.7712757175</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-311355.1101757175</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-314172.2605757175</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-330509.0319757175</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-334099.4869757175</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-334099.4869757175</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-332699.9277757175</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>-329207.7407757175</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>-335619.5993757175</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>-333520.2604757175</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>-334919.8197757176</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>-334919.8197757176</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>-332728.1656757176</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-338385.6439757176</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>-338385.6439757176</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>-341881.8930757176</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>-341182.1134757176</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-341881.8930757176</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>-341881.8930757176</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-341182.1134757176</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-341182.1134757176</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-340482.3338757176</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-340482.3338757176</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>-342581.6728757176</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>-361247.0056757175</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>-359061.8171757176</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>-363989.2732757176</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>-366789.2888757176</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-366089.5092757175</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>-370997.9667757176</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-370208.1871757176</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-401022.4230757175</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-400322.6434757175</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-403925.8042757175</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-401757.8645757175</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-404630.2345757175</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-402360.0430757175</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-405238.3122757175</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-405238.3122757175</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-405992.6372757175</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-405260.8576757175</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-403143.2085757175</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-403143.2085757175</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-400301.8248757175</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-398902.2655757175</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-398902.2655757175</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-399677.0451757175</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-350301.8148757175</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-354547.8506757175</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-356744.6781757175</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-363237.0920757175</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-358883.0499757175</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-356783.7109757175</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-363722.0021757175</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-363722.0021757175</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-360227.2275757175</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-357428.1089757175</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-358127.8885757175</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-404907.0415757175</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-395047.3177757175</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-395047.3177757175</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-366221.0868757175</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-433953.9713757175</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-575336.7262757175</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-608491.3137757175</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-626521.5268757176</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-594566.0777757176</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-564153.9385757176</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-561354.8199757176</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-561354.8199757176</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-401197.0070757174</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-406239.3953757174</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-469582.8419757175</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-457469.9979757175</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-461701.4826757174</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-482922.4754757175</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-482922.4754757175</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-485721.5940757174</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-529025.5687757174</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-534078.8514757174</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-534778.6310757174</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-533379.0718757174</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-543056.9660757174</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-543756.7456757174</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-540159.1304757174</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-542958.2490757174</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-544153.8802757174</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-544853.6598757174</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-549052.3377757174</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-547652.7785757174</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-551847.3578757173</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-548348.4595757173</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-553727.0355757172</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-575504.1697757172</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-572675.3407757172</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-571975.5611757172</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-569176.4426757172</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-564972.5090757172</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-571409.4090757172</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-569310.0701757172</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-569269.9057757172</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-569966.3886757172</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-573540.8677757172</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-577919.0115757171</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-573724.3296757172</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-571585.7283757172</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-576592.7374757172</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-574410.6862757172</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-572311.3473757172</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-574432.4534757172</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-506658.7778757172</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-509509.7761757172</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-505223.1092757172</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-508050.4334757171</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-508750.2130757172</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-512249.1113757172</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-510079.6013757171</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-513663.9216757172</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-516463.0402757172</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-512964.1420757172</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-514363.7013757172</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-514363.7013757172</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-512166.7161757172</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-514266.0551757172</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-517065.1735757171</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-514244.1796757171</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-512144.8407757172</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-470446.8737757172</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-472624.6199757172</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-475499.5250757171</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-475499.5250757171</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-473406.3222757171</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-476905.2204757171</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-476205.4408757171</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-478304.7798757171</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-476205.4409757171</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-486228.3075757171</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-481980.0523757171</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-479880.7133757171</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-479880.7133757171</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-484886.2272757171</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-486285.7865757172</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-485586.0069757171</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-485586.0069757171</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-484186.4477757171</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-485586.0069757171</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-481319.8123757172</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-479920.2530757171</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-506000.4953757171</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-506000.4953757171</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-522382.3636757171</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-520982.8043757171</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-520982.8043757171</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-523862.6827757171</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-523862.6827757171</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-528902.9665757171</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-528902.9665757171</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-526105.2809757171</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-526105.2809757171</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-524705.7216757172</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-524705.7216757172</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-528904.3996757171</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-526716.6304757171</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-529518.9480757171</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-529518.9480757171</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-526002.493875717</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-528184.5741757171</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-528184.5741757171</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-527484.7945757171</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-527484.7945757171</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-529584.1335757171</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-528884.3539757171</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-530988.2937757171</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-530988.2937757171</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-530988.2937757171</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-538094.5335757171</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-535995.1945757171</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-535995.1945757171</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-535995.1945757171</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-478433.7555757171</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-479133.5351757171</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-515939.5097757171</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-513840.1709757171</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-516729.4624757171</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-518828.801375717</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-518828.801375717</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-520961.988775717</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-515716.126175717</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-517886.854975717</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-533620.7366757171</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-529422.0586757171</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,7 +23815,7 @@
         <v>-530121.8382757171</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23848,7 +23848,7 @@
         <v>-569358.7237757171</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -23881,7 +23881,7 @@
         <v>-623668.3245757171</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -23914,7 +23914,7 @@
         <v>-643176.977975717</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -23947,7 +23947,7 @@
         <v>-670272.762675717</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -23980,7 +23980,7 @@
         <v>-676081.771375717</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24013,7 +24013,7 @@
         <v>-676081.771375717</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24046,7 +24046,7 @@
         <v>-673982.432375717</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24079,7 +24079,7 @@
         <v>-672582.873075717</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24112,7 +24112,7 @@
         <v>-672582.873075717</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24145,7 +24145,7 @@
         <v>-687889.908975717</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24178,7 +24178,7 @@
         <v>-685390.259175717</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24211,7 +24211,7 @@
         <v>-683208.0700757171</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24244,7 +24244,7 @@
         <v>-683208.0700757171</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24277,7 +24277,7 @@
         <v>-678219.9626757171</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24343,7 +24343,7 @@
         <v>-675342.646775717</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24376,7 +24376,7 @@
         <v>-675342.646775717</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24409,7 +24409,7 @@
         <v>-678231.117375717</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24442,7 +24442,7 @@
         <v>-678231.117375717</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24475,7 +24475,7 @@
         <v>-676131.778375717</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-673467.978675717</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24541,7 +24541,7 @@
         <v>-674867.537975717</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24574,7 +24574,7 @@
         <v>-670283.887075717</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-666714.882275717</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-668897.821275717</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-668897.821275717</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-668897.821275717</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-666798.482275717</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-666798.482275717</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-668897.8211757169</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-668897.8211757169</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-666098.702675717</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-669998.2619757169</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-670698.0415757169</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-665706.3666757169</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-667105.9259757169</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-661398.6125757169</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-654993.9937757169</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-654993.9937757169</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-657793.1123757169</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-659939.1535757169</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -36454,10 +36454,14 @@
         <v>-1746558.495265333</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1093" t="inlineStr"/>
       <c r="L1093" t="n">
         <v>1</v>
@@ -36490,8 +36494,14 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36520,11 +36530,19 @@
         <v>-1787636.853265333</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36553,11 +36571,19 @@
         <v>-1787636.853265333</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36586,11 +36612,19 @@
         <v>-1813916.822065333</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36619,11 +36653,19 @@
         <v>-1811817.483165333</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>54</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36652,11 +36694,19 @@
         <v>-1784256.337965333</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36685,11 +36735,19 @@
         <v>-1788485.531065333</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36718,11 +36776,19 @@
         <v>-1791324.158165333</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36751,11 +36817,19 @@
         <v>-1789924.598865333</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36784,11 +36858,19 @@
         <v>-1792403.891365333</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36817,11 +36899,19 @@
         <v>-1791004.332065333</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>54</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36850,11 +36940,19 @@
         <v>-1787251.933065333</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36883,11 +36981,19 @@
         <v>-1782253.043765333</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36916,11 +37022,19 @@
         <v>-1776516.210865333</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36949,11 +37063,19 @@
         <v>-1762506.871865333</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>54.26</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -36982,11 +37104,19 @@
         <v>-1762506.871865333</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>54.67</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37015,11 +37145,19 @@
         <v>-1763906.431065333</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>54.67</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37048,11 +37186,19 @@
         <v>-1767175.774665333</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37081,11 +37227,19 @@
         <v>-1758756.139665333</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37114,11 +37268,19 @@
         <v>-1752449.402065333</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>54.66</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37150,8 +37312,14 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37180,11 +37348,19 @@
         <v>-1753925.152665333</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37216,8 +37392,14 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37249,8 +37431,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37282,8 +37470,14 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37312,11 +37506,19 @@
         <v>-1770635.373565333</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>54.54</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37547,19 @@
         <v>-1770635.373565333</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37378,11 +37588,19 @@
         <v>-1769935.593965333</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37414,8 +37632,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37444,11 +37668,19 @@
         <v>-1767585.970365333</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>54.38</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37480,8 +37712,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37513,8 +37751,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37546,8 +37790,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37579,8 +37829,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37612,8 +37868,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37645,8 +37907,14 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37678,8 +37946,14 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37711,8 +37985,14 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37744,8 +38024,14 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37777,8 +38063,14 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37810,8 +38102,14 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37843,8 +38141,14 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37876,8 +38180,14 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37909,8 +38219,14 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37942,8 +38258,14 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37972,11 +38294,19 @@
         <v>-1687376.357865333</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38008,8 +38338,14 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38038,15 +38374,17 @@
         <v>-1615178.289765333</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1141" t="n">
         <v>54.35</v>
       </c>
-      <c r="J1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1141" t="n">
@@ -38080,7 +38418,9 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38117,7 +38457,9 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38154,7 +38496,9 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38191,7 +38535,9 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38228,7 +38574,9 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38265,7 +38613,9 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38302,7 +38652,9 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38339,7 +38691,9 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
+      <c r="J1149" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38376,7 +38730,9 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
+      <c r="J1150" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38413,7 +38769,9 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38450,7 +38808,9 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38487,7 +38847,9 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38524,7 +38886,9 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38561,7 +38925,9 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38598,7 +38964,9 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38635,7 +39003,9 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38672,7 +39042,9 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38709,7 +39081,9 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38746,7 +39120,9 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38780,10 +39156,14 @@
         <v>-1583880.155665333</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>54.67</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38820,7 +39200,9 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38857,7 +39239,9 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38894,7 +39278,9 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38931,7 +39317,9 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
+      <c r="J1165" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38968,7 +39356,9 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
+      <c r="J1166" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39005,7 +39395,9 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
+      <c r="J1167" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39042,7 +39434,9 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
+      <c r="J1168" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39079,7 +39473,9 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
+      <c r="J1169" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39116,7 +39512,9 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
+      <c r="J1170" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39153,7 +39551,9 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
+      <c r="J1171" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39190,7 +39590,9 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39227,7 +39629,9 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39264,7 +39668,9 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39301,7 +39707,9 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39338,7 +39746,9 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39375,7 +39785,9 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
+      <c r="J1177" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39412,7 +39824,9 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
+      <c r="J1178" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39449,7 +39863,9 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
+      <c r="J1179" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39486,7 +39902,9 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
+      <c r="J1180" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39523,7 +39941,9 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
+      <c r="J1181" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39560,7 +39980,9 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
+      <c r="J1182" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39597,7 +40019,9 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
+      <c r="J1183" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39634,7 +40058,9 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
+      <c r="J1184" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39671,7 +40097,9 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
+      <c r="J1185" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39708,7 +40136,9 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
+      <c r="J1186" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39745,7 +40175,9 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
+      <c r="J1187" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39782,7 +40214,9 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
+      <c r="J1188" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39819,7 +40253,9 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
+      <c r="J1189" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39856,7 +40292,9 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
+      <c r="J1190" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39893,7 +40331,9 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
+      <c r="J1191" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39930,7 +40370,9 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
+      <c r="J1192" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39967,7 +40409,9 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
+      <c r="J1193" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40004,7 +40448,9 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
+      <c r="J1194" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40041,7 +40487,9 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
+      <c r="J1195" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40078,7 +40526,9 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
+      <c r="J1196" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40115,7 +40565,9 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
+      <c r="J1197" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40152,7 +40604,9 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
+      <c r="J1198" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40189,7 +40643,9 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
+      <c r="J1199" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40226,7 +40682,9 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
+      <c r="J1200" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40263,7 +40721,9 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
+      <c r="J1201" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40300,7 +40760,9 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
+      <c r="J1202" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40337,7 +40799,9 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40374,7 +40838,9 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+      <c r="J1204" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40411,7 +40877,9 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+      <c r="J1205" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40448,7 +40916,9 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40485,7 +40955,9 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40522,7 +40994,9 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40559,7 +41033,9 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40596,7 +41072,9 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40633,7 +41111,9 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40670,7 +41150,9 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40707,7 +41189,9 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40744,7 +41228,9 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40781,7 +41267,9 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40818,7 +41306,9 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40855,7 +41345,9 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40892,7 +41384,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40929,7 +41423,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40966,7 +41462,9 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41003,7 +41501,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41040,7 +41540,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41077,7 +41579,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41114,7 +41618,9 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41151,7 +41657,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41188,7 +41696,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41225,7 +41735,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41262,7 +41774,9 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41299,7 +41813,9 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41336,7 +41852,9 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41373,7 +41891,9 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41410,7 +41930,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41444,10 +41966,14 @@
         <v>-1751322.945165332</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41484,7 +42010,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41518,10 +42046,14 @@
         <v>-1749897.400465332</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>54.49</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41555,10 +42087,14 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>54.37</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41592,10 +42128,14 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41629,10 +42169,14 @@
         <v>-1762717.739365332</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41666,10 +42210,14 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41706,7 +42254,9 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41743,7 +42293,9 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41780,7 +42332,9 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41817,7 +42371,9 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41851,10 +42407,14 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41888,10 +42448,14 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41925,10 +42489,14 @@
         <v>-1858595.973465332</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>53.88</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41962,10 +42530,14 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>54.03</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41999,12 +42571,14 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1248" t="n">
         <v>54.06</v>
       </c>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42038,10 +42612,14 @@
         <v>-1850383.876465332</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42075,12 +42653,14 @@
         <v>-1848984.317165332</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1250" t="n">
         <v>54.16</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42114,12 +42694,14 @@
         <v>-1844739.931565332</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1251" t="n">
         <v>54.27</v>
       </c>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42153,12 +42735,14 @@
         <v>-1848976.573965332</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1252" t="n">
         <v>54.28</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42192,12 +42776,14 @@
         <v>-1846877.235065332</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1253" t="n">
         <v>54.26</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42231,12 +42817,14 @@
         <v>-1844052.372565332</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1254" t="n">
         <v>54.28</v>
       </c>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42270,12 +42858,14 @@
         <v>-1844052.372565332</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>54.33</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42309,12 +42899,14 @@
         <v>-1844052.372565332</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1256" t="n">
         <v>54.33</v>
       </c>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42348,12 +42940,14 @@
         <v>-1844052.372565332</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>54.33</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42387,10 +42981,14 @@
         <v>-1844052.372565332</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42424,10 +43022,14 @@
         <v>-1851262.503465332</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42461,10 +43063,14 @@
         <v>-1851262.503465332</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42498,10 +43104,14 @@
         <v>-1854776.266465332</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42535,10 +43145,14 @@
         <v>-1853315.231165332</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>54.26</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42572,10 +43186,14 @@
         <v>-1864700.127565332</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42609,10 +43227,14 @@
         <v>-1864700.127565332</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42646,10 +43268,14 @@
         <v>-1864700.127565332</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42683,10 +43309,14 @@
         <v>-1884175.598665332</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42720,10 +43350,14 @@
         <v>-1884175.598665332</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42757,12 +43391,14 @@
         <v>-1886974.717165332</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>54.05</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42796,10 +43432,14 @@
         <v>-1949887.750665332</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>53.98</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42833,10 +43473,14 @@
         <v>-1946345.334365332</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42870,10 +43514,14 @@
         <v>-1946345.334365332</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>53.91</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42907,10 +43555,14 @@
         <v>-1946345.334365332</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>53.91</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42944,10 +43596,14 @@
         <v>-1812060.404265332</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>53.91</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42984,7 +43640,9 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43021,7 +43679,9 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43058,7 +43718,9 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43095,7 +43757,9 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43129,10 +43793,14 @@
         <v>-1779543.344165332</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>54.33</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43169,7 +43837,9 @@
         <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43203,10 +43873,14 @@
         <v>-1752712.502665332</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43240,10 +43914,14 @@
         <v>-1772281.071165332</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1281" t="inlineStr"/>
-      <c r="J1281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43277,12 +43955,14 @@
         <v>-1770881.511865332</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1282" t="n">
         <v>54.68</v>
       </c>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43316,12 +43996,12 @@
         <v>-1770881.511865332</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1283" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="J1283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43355,12 +44035,14 @@
         <v>-1770881.511865332</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1284" t="n">
         <v>54.72</v>
       </c>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43397,7 +44079,9 @@
         <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43434,7 +44118,9 @@
         <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43471,7 +44157,9 @@
         <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43508,7 +44196,9 @@
         <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43545,7 +44235,9 @@
         <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43582,7 +44274,9 @@
         <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43619,7 +44313,9 @@
         <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43656,7 +44352,9 @@
         <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43693,7 +44391,9 @@
         <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43730,7 +44430,9 @@
         <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43767,7 +44469,9 @@
         <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43804,7 +44508,9 @@
         <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43841,7 +44547,9 @@
         <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43878,7 +44586,9 @@
         <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43915,7 +44625,9 @@
         <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43952,7 +44664,9 @@
         <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43989,7 +44703,9 @@
         <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44026,7 +44742,9 @@
         <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44063,7 +44781,9 @@
         <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44100,7 +44820,9 @@
         <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44137,7 +44859,9 @@
         <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44174,7 +44898,9 @@
         <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
-      <c r="J1306" t="inlineStr"/>
+      <c r="J1306" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44211,7 +44937,9 @@
         <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
-      <c r="J1307" t="inlineStr"/>
+      <c r="J1307" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44245,12 +44973,14 @@
         <v>-1832964.871265331</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1308" t="n">
         <v>54.43</v>
       </c>
-      <c r="J1308" t="inlineStr"/>
+      <c r="J1308" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44284,10 +45014,14 @@
         <v>-1828057.213665331</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1309" t="inlineStr"/>
-      <c r="J1309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>54.45</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44321,10 +45055,14 @@
         <v>-1831556.111965331</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1310" t="inlineStr"/>
-      <c r="J1310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44358,12 +45096,14 @@
         <v>-1832255.891565331</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1311" t="n">
         <v>54.43</v>
       </c>
-      <c r="J1311" t="inlineStr"/>
+      <c r="J1311" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44397,10 +45137,14 @@
         <v>-1827357.553565331</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1312" t="inlineStr"/>
-      <c r="J1312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44437,7 +45181,9 @@
         <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
-      <c r="J1313" t="inlineStr"/>
+      <c r="J1313" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44474,7 +45220,9 @@
         <v>0</v>
       </c>
       <c r="I1314" t="inlineStr"/>
-      <c r="J1314" t="inlineStr"/>
+      <c r="J1314" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44511,7 +45259,9 @@
         <v>0</v>
       </c>
       <c r="I1315" t="inlineStr"/>
-      <c r="J1315" t="inlineStr"/>
+      <c r="J1315" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44548,7 +45298,9 @@
         <v>0</v>
       </c>
       <c r="I1316" t="inlineStr"/>
-      <c r="J1316" t="inlineStr"/>
+      <c r="J1316" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44585,7 +45337,9 @@
         <v>0</v>
       </c>
       <c r="I1317" t="inlineStr"/>
-      <c r="J1317" t="inlineStr"/>
+      <c r="J1317" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44622,7 +45376,9 @@
         <v>0</v>
       </c>
       <c r="I1318" t="inlineStr"/>
-      <c r="J1318" t="inlineStr"/>
+      <c r="J1318" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44659,7 +45415,9 @@
         <v>0</v>
       </c>
       <c r="I1319" t="inlineStr"/>
-      <c r="J1319" t="inlineStr"/>
+      <c r="J1319" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44696,7 +45454,9 @@
         <v>0</v>
       </c>
       <c r="I1320" t="inlineStr"/>
-      <c r="J1320" t="inlineStr"/>
+      <c r="J1320" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44733,7 +45493,9 @@
         <v>0</v>
       </c>
       <c r="I1321" t="inlineStr"/>
-      <c r="J1321" t="inlineStr"/>
+      <c r="J1321" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44770,7 +45532,9 @@
         <v>0</v>
       </c>
       <c r="I1322" t="inlineStr"/>
-      <c r="J1322" t="inlineStr"/>
+      <c r="J1322" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44807,7 +45571,9 @@
         <v>0</v>
       </c>
       <c r="I1323" t="inlineStr"/>
-      <c r="J1323" t="inlineStr"/>
+      <c r="J1323" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44844,7 +45610,9 @@
         <v>0</v>
       </c>
       <c r="I1324" t="inlineStr"/>
-      <c r="J1324" t="inlineStr"/>
+      <c r="J1324" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44881,7 +45649,9 @@
         <v>0</v>
       </c>
       <c r="I1325" t="inlineStr"/>
-      <c r="J1325" t="inlineStr"/>
+      <c r="J1325" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44918,7 +45688,9 @@
         <v>0</v>
       </c>
       <c r="I1326" t="inlineStr"/>
-      <c r="J1326" t="inlineStr"/>
+      <c r="J1326" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44955,7 +45727,9 @@
         <v>0</v>
       </c>
       <c r="I1327" t="inlineStr"/>
-      <c r="J1327" t="inlineStr"/>
+      <c r="J1327" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44989,10 +45763,14 @@
         <v>-1762074.280428807</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
-      <c r="J1328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45026,10 +45804,14 @@
         <v>-1764237.819328807</v>
       </c>
       <c r="H1329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1329" t="inlineStr"/>
-      <c r="J1329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45066,7 +45848,9 @@
         <v>0</v>
       </c>
       <c r="I1330" t="inlineStr"/>
-      <c r="J1330" t="inlineStr"/>
+      <c r="J1330" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45103,7 +45887,9 @@
         <v>0</v>
       </c>
       <c r="I1331" t="inlineStr"/>
-      <c r="J1331" t="inlineStr"/>
+      <c r="J1331" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45137,10 +45923,14 @@
         <v>-1781310.872628807</v>
       </c>
       <c r="H1332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1332" t="inlineStr"/>
-      <c r="J1332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>54.77</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45177,7 +45967,9 @@
         <v>0</v>
       </c>
       <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="inlineStr"/>
+      <c r="J1333" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45214,7 +46006,9 @@
         <v>0</v>
       </c>
       <c r="I1334" t="inlineStr"/>
-      <c r="J1334" t="inlineStr"/>
+      <c r="J1334" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45248,10 +46042,14 @@
         <v>-1775718.133128807</v>
       </c>
       <c r="H1335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1335" t="inlineStr"/>
-      <c r="J1335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45285,10 +46083,14 @@
         <v>-1772895.514128807</v>
       </c>
       <c r="H1336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1336" t="inlineStr"/>
-      <c r="J1336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45322,10 +46124,14 @@
         <v>-1775048.690228807</v>
       </c>
       <c r="H1337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1337" t="inlineStr"/>
-      <c r="J1337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>54.65</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45362,7 +46168,9 @@
         <v>0</v>
       </c>
       <c r="I1338" t="inlineStr"/>
-      <c r="J1338" t="inlineStr"/>
+      <c r="J1338" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45396,10 +46204,14 @@
         <v>-1778591.755228807</v>
       </c>
       <c r="H1339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1339" t="inlineStr"/>
-      <c r="J1339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45436,7 +46248,9 @@
         <v>0</v>
       </c>
       <c r="I1340" t="inlineStr"/>
-      <c r="J1340" t="inlineStr"/>
+      <c r="J1340" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45473,7 +46287,9 @@
         <v>0</v>
       </c>
       <c r="I1341" t="inlineStr"/>
-      <c r="J1341" t="inlineStr"/>
+      <c r="J1341" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45510,7 +46326,9 @@
         <v>0</v>
       </c>
       <c r="I1342" t="inlineStr"/>
-      <c r="J1342" t="inlineStr"/>
+      <c r="J1342" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45547,7 +46365,9 @@
         <v>0</v>
       </c>
       <c r="I1343" t="inlineStr"/>
-      <c r="J1343" t="inlineStr"/>
+      <c r="J1343" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45584,7 +46404,9 @@
         <v>0</v>
       </c>
       <c r="I1344" t="inlineStr"/>
-      <c r="J1344" t="inlineStr"/>
+      <c r="J1344" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45621,7 +46443,9 @@
         <v>0</v>
       </c>
       <c r="I1345" t="inlineStr"/>
-      <c r="J1345" t="inlineStr"/>
+      <c r="J1345" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45658,7 +46482,9 @@
         <v>0</v>
       </c>
       <c r="I1346" t="inlineStr"/>
-      <c r="J1346" t="inlineStr"/>
+      <c r="J1346" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45695,7 +46521,9 @@
         <v>0</v>
       </c>
       <c r="I1347" t="inlineStr"/>
-      <c r="J1347" t="inlineStr"/>
+      <c r="J1347" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45732,7 +46560,9 @@
         <v>0</v>
       </c>
       <c r="I1348" t="inlineStr"/>
-      <c r="J1348" t="inlineStr"/>
+      <c r="J1348" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45769,7 +46599,9 @@
         <v>0</v>
       </c>
       <c r="I1349" t="inlineStr"/>
-      <c r="J1349" t="inlineStr"/>
+      <c r="J1349" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45806,7 +46638,9 @@
         <v>0</v>
       </c>
       <c r="I1350" t="inlineStr"/>
-      <c r="J1350" t="inlineStr"/>
+      <c r="J1350" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45843,7 +46677,9 @@
         <v>0</v>
       </c>
       <c r="I1351" t="inlineStr"/>
-      <c r="J1351" t="inlineStr"/>
+      <c r="J1351" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45880,7 +46716,9 @@
         <v>0</v>
       </c>
       <c r="I1352" t="inlineStr"/>
-      <c r="J1352" t="inlineStr"/>
+      <c r="J1352" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45917,7 +46755,9 @@
         <v>0</v>
       </c>
       <c r="I1353" t="inlineStr"/>
-      <c r="J1353" t="inlineStr"/>
+      <c r="J1353" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45954,7 +46794,9 @@
         <v>0</v>
       </c>
       <c r="I1354" t="inlineStr"/>
-      <c r="J1354" t="inlineStr"/>
+      <c r="J1354" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45988,10 +46830,14 @@
         <v>-1810708.739028806</v>
       </c>
       <c r="H1355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1355" t="inlineStr"/>
-      <c r="J1355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>54.32</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>54.14</v>
+      </c>
       <c r="K1355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -46003,6 +46849,6 @@
       <c r="M1355" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest IPX.xlsx
+++ b/BackTest/2020-01-23 BackTest IPX.xlsx
@@ -451,7 +451,7 @@
         <v>-45830.82510806901</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-56274.95720806901</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-55575.17750806901</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-54175.61810806901</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-56974.73690806901</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-59792.94210806901</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-58393.38270806901</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-53500.14700806901</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-59176.09710806901</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-57016.75800806902</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49423.99520806901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-37309.95880806902</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-35850.39940806902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-32351.28060806902</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-35167.64190806902</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-22642.00310806902</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-33688.22780806902</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-41630.68860806902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-42330.46830806902</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-45617.75500806901</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>226.1177919309848</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>3762.818991930985</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>5862.158091930985</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>3049.546191930986</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-55726.67940806902</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-52927.56080806901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-188323.337908069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-196720.693808069</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-197420.473408069</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-193117.858108069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-448757.1279757174</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-445319.4198757174</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-448818.3181757174</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-448118.5385757174</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-442441.8341757174</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-497152.5857757175</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-497852.3653757175</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-453005.5469757174</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-392596.9036757174</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-401197.0070757174</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-406239.3953757174</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-469582.8419757175</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-457469.9979757175</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-461701.4826757174</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-482922.4754757175</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-485721.5940757174</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-529725.3483757174</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-529025.5687757174</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-534078.8514757174</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-534778.6310757174</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-533379.0718757174</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-543056.9660757174</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-543756.7456757174</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-540159.1304757174</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-542958.2490757174</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-539964.4124757174</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-544153.8802757174</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-544853.6598757174</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-545553.4394757174</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-549052.3377757174</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-547652.7785757174</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-551847.3578757173</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-548348.4595757173</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-541959.6105757173</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-541971.1930757173</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-544070.5319757173</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-546234.0359757172</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-551627.6966757172</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-553727.0355757172</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-571975.5611757172</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-569176.4426757172</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-564972.5090757172</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-571409.4090757172</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-569310.0701757172</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-571419.8742757172</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-569269.9057757172</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-572151.7574757172</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-569966.3886757172</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-573540.8677757172</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-577919.0115757171</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-573724.3296757172</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-571585.7283757172</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-576592.7374757172</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-572311.3473757172</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-506658.7778757172</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-509509.7761757172</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-508050.4334757171</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-508750.2130757172</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-510079.6013757171</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-513663.9216757172</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-516463.0402757172</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-514363.7013757172</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-512166.7161757172</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-514266.0551757172</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-517065.1735757171</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-476905.2204757171</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-476205.4408757171</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-478304.7798757171</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-476205.4409757171</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-483410.0465757171</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-486228.3075757171</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-482679.8319757171</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-485586.0069757171</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-506000.4953757171</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-661251.2329757169</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-685233.2527757169</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-660502.2713757169</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-658382.4636757169</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-662631.4530757169</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-664730.7919757168</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-661915.8202757168</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-652198.8998757169</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-650799.3406757169</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-636579.4423757169</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26290,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26323,7 @@
         <v>-638795.3568757169</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26356,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26389,7 @@
         <v>-637388.509275717</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26422,7 @@
         <v>-634589.3906757169</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-641357.6528757169</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-634767.7821570319</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26653,7 +26653,7 @@
         <v>-787300.1400570319</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +26686,7 @@
         <v>-794710.6306570319</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +26719,7 @@
         <v>-793311.0714570319</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +26752,7 @@
         <v>-783285.6315570319</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +26785,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +26818,7 @@
         <v>-779774.2795570319</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +26851,7 @@
         <v>-781873.6184570319</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +26884,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +26917,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +26950,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +26983,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27016,7 @@
         <v>-780474.0591570319</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27049,7 @@
         <v>-779074.4999570319</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27181,7 +27181,7 @@
         <v>-785707.5519570318</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27247,7 +27247,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27280,7 @@
         <v>-782908.4333570318</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27313,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27346,7 @@
         <v>-778694.1216570318</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27379,7 @@
         <v>-780793.4606570319</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27412,7 @@
         <v>-784836.8360570319</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
         <v>-876982.9535570319</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27478,7 @@
         <v>-888520.0605570319</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27511,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27544,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27577,7 @@
         <v>-892072.3656570319</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29161,7 +29161,7 @@
         <v>-883606.6977570321</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29194,7 +29194,7 @@
         <v>-896538.5083570321</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29227,7 +29227,7 @@
         <v>-897238.2879570321</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29260,7 +29260,7 @@
         <v>-895056.3069570321</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29293,7 +29293,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29326,7 +29326,7 @@
         <v>-896455.866257032</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29359,7 @@
         <v>-893621.454057032</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29392,7 @@
         <v>-890822.335457032</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29425,7 @@
         <v>-886577.3958570319</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29458,7 @@
         <v>-884468.0568570319</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29491,7 @@
         <v>-871680.6828570319</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29524,7 +29524,7 @@
         <v>-873801.846957032</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29557,7 +29557,7 @@
         <v>-871702.508057032</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29590,7 +29590,7 @@
         <v>-873815.704557032</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29623,7 +29623,7 @@
         <v>-871669.3934570319</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +29656,7 @@
         <v>-875168.2917570319</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +29689,7 @@
         <v>-870873.184957032</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +29722,7 @@
         <v>-867272.492457032</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +29755,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +29788,7 @@
         <v>-878634.924457032</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +29821,7 @@
         <v>-879334.704057032</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +29854,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +29887,7 @@
         <v>-874375.138357032</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +29920,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +29953,7 @@
         <v>-875074.917957032</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +29986,7 @@
         <v>-870818.513457032</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30019,7 @@
         <v>-874392.489357032</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30052,7 @@
         <v>-871593.645757032</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30085,7 @@
         <v>-874397.8080570319</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30118,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30151,7 @@
         <v>-873698.0284570319</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30184,7 @@
         <v>-874514.291457032</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30217,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30250,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30283,7 @@
         <v>-871022.000757032</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30316,7 @@
         <v>-863682.845657032</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30349,7 @@
         <v>-867462.3197545069</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30382,7 +30382,7 @@
         <v>-868870.8789545069</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30415,7 +30415,7 @@
         <v>-866717.2927545069</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30448,7 +30448,7 @@
         <v>-874556.876954507</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30481,7 +30481,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30514,7 +30514,7 @@
         <v>-870335.270151982</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +30547,7 @@
         <v>-865393.6171519819</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +30580,7 @@
         <v>-906846.1210519819</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +30613,7 @@
         <v>-939306.514849457</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>-942515.3842494569</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +30679,7 @@
         <v>-925442.4343494569</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +30712,7 @@
         <v>-927536.0863494569</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +30745,7 @@
         <v>-926836.3067494569</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +30778,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +30811,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +30844,7 @@
         <v>-928955.862849457</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +30877,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +30910,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +30943,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +30976,7 @@
         <v>-924757.184849457</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31273,7 +31273,7 @@
         <v>-923261.9024494569</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -31306,7 +31306,7 @@
         <v>-921862.3431494569</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -31339,7 +31339,7 @@
         <v>-925361.2414494569</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -31372,7 +31372,7 @@
         <v>-924661.4618494569</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31405,7 @@
         <v>-928860.1398494568</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31438,7 @@
         <v>-930959.4787494568</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31471,7 @@
         <v>-935409.5995494568</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +31504,7 @@
         <v>-938258.5746494569</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +31537,7 @@
         <v>-935910.0318494568</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +31570,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +31603,7 @@
         <v>-938749.8420494568</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +31636,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31768,7 +31768,7 @@
         <v>-921633.9969494567</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31900,7 +31900,7 @@
         <v>-919457.4740494568</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +31933,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +31966,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +31999,7 @@
         <v>-921617.8465494568</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32032,7 @@
         <v>-918818.7279494568</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32065,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32098,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32131,7 @@
         <v>-920984.2996494567</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32164,7 @@
         <v>-909453.2108494567</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32197,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32230,7 @@
         <v>-902822.8568494567</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32263,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32296,7 @@
         <v>-885573.3667494566</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32329,7 @@
         <v>-884173.8074494567</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32362,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32395,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32428,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32461,7 @@
         <v>-881374.6888494566</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32494,7 @@
         <v>-886474.0278494566</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +32527,7 @@
         <v>-888567.3094494566</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +32560,7 @@
         <v>-887167.7501494567</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +32593,7 @@
         <v>-884368.6315494566</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +32626,7 @@
         <v>-865592.3058494566</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +32659,7 @@
         <v>-902378.8161743006</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +32692,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +32725,7 @@
         <v>-900979.2569743006</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +32758,7 @@
         <v>-907680.0537743006</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +32791,7 @@
         <v>-899008.1122743007</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +32824,7 @@
         <v>-902606.8779743006</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +32857,7 @@
         <v>-824788.4785743007</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +32890,7 @@
         <v>-822526.4162743007</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +32923,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-827680.7356743007</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-839214.7277743007</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-837652.4451743007</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-839757.3187743007</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-837662.0097743007</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-844669.3054743008</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-846768.6444743008</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-878047.8590743007</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-863540.4185743007</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-862810.6389743007</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-864210.1981743007</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-866310.3982743007</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-886998.5137743007</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>-891322.7630743007</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-897340.3220743007</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-895160.3744743008</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-892349.6672743008</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-895959.6856743008</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-910096.9338743008</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-907987.5949743008</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-908707.3745743008</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>-905908.2559743008</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-920567.7585743008</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>-945441.9102743008</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-942601.4751743008</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-829933.4339743009</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-864357.1175743008</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-862169.6465743008</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-864856.5857743009</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-860544.4459743008</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-861244.2255743009</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-861944.0051743009</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -41140,17 +41140,11 @@
         <v>-1749897.400465332</v>
       </c>
       <c r="H1235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1235" t="n">
-        <v>54.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1235" t="inlineStr"/>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41179,17 +41173,11 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1236" t="n">
-        <v>54.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1236" t="inlineStr"/>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41218,17 +41206,11 @@
         <v>-1750597.180065332</v>
       </c>
       <c r="H1237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1237" t="n">
-        <v>54.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1237" t="inlineStr"/>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41257,17 +41239,11 @@
         <v>-1762717.739365332</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>54.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1238" t="inlineStr"/>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41296,17 +41272,11 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>54.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1239" t="inlineStr"/>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41335,17 +41305,11 @@
         <v>-1838995.905965332</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>54.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1240" t="inlineStr"/>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41374,17 +41338,11 @@
         <v>-1902028.207365332</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>54.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1241" t="inlineStr"/>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41413,17 +41371,11 @@
         <v>-1894338.451265332</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>53.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1242" t="inlineStr"/>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41452,17 +41404,11 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>53.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1243" t="inlineStr"/>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41491,17 +41437,11 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>53.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1244" t="inlineStr"/>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41530,17 +41470,11 @@
         <v>-1896437.790165332</v>
       </c>
       <c r="H1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>53.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1245" t="inlineStr"/>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
@@ -41569,17 +41503,11 @@
         <v>-1858595.973465332</v>
       </c>
       <c r="H1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>53.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
-      <c r="K1246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1246" t="inlineStr"/>
       <c r="L1246" t="n">
         <v>1</v>
       </c>
@@ -41608,17 +41536,11 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>54.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -41647,17 +41569,11 @@
         <v>-1854696.414265332</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>54.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
@@ -41694,7 +41610,7 @@
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1249" t="n">
@@ -42735,11 +42651,9 @@
         <v>-1806402.049365332</v>
       </c>
       <c r="H1276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1276" t="n">
-        <v>54.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
@@ -43625,16 +43539,18 @@
         <v>-1822930.181165332</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
       <c r="K1300" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L1300" t="inlineStr"/>
+      <c r="L1300" t="n">
+        <v>1</v>
+      </c>
       <c r="M1300" t="inlineStr"/>
     </row>
     <row r="1301">
@@ -43660,11 +43576,15 @@
         <v>-1840136.406065332</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
-      <c r="K1301" t="inlineStr"/>
+      <c r="K1301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1301" t="n">
         <v>1</v>
       </c>
@@ -43693,11 +43613,15 @@
         <v>-1835819.009865331</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
-      <c r="K1302" t="inlineStr"/>
+      <c r="K1302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1302" t="n">
         <v>1</v>
       </c>
@@ -43730,7 +43654,11 @@
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
-      <c r="K1303" t="inlineStr"/>
+      <c r="K1303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1303" t="n">
         <v>1</v>
       </c>
@@ -43763,7 +43691,11 @@
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
-      <c r="K1304" t="inlineStr"/>
+      <c r="K1304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1304" t="n">
         <v>1</v>
       </c>
@@ -43796,7 +43728,11 @@
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
-      <c r="K1305" t="inlineStr"/>
+      <c r="K1305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1305" t="n">
         <v>1</v>
       </c>
@@ -43829,7 +43765,11 @@
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
-      <c r="K1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1306" t="n">
         <v>1</v>
       </c>
@@ -43862,7 +43802,11 @@
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
-      <c r="K1307" t="inlineStr"/>
+      <c r="K1307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1307" t="n">
         <v>1</v>
       </c>
@@ -43895,7 +43839,11 @@
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
-      <c r="K1308" t="inlineStr"/>
+      <c r="K1308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1308" t="n">
         <v>1</v>
       </c>
@@ -43928,7 +43876,11 @@
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
-      <c r="K1309" t="inlineStr"/>
+      <c r="K1309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1309" t="n">
         <v>1</v>
       </c>
@@ -43961,7 +43913,11 @@
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
-      <c r="K1310" t="inlineStr"/>
+      <c r="K1310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1310" t="n">
         <v>1</v>
       </c>
@@ -43994,7 +43950,11 @@
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
+      <c r="K1311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1311" t="n">
         <v>1</v>
       </c>
@@ -44027,7 +43987,11 @@
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
-      <c r="K1312" t="inlineStr"/>
+      <c r="K1312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1312" t="n">
         <v>1</v>
       </c>
@@ -44060,7 +44024,11 @@
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
-      <c r="K1313" t="inlineStr"/>
+      <c r="K1313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1313" t="n">
         <v>1</v>
       </c>
@@ -44093,7 +44061,11 @@
       </c>
       <c r="I1314" t="inlineStr"/>
       <c r="J1314" t="inlineStr"/>
-      <c r="K1314" t="inlineStr"/>
+      <c r="K1314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1314" t="n">
         <v>1</v>
       </c>
@@ -44122,11 +44094,17 @@
         <v>-1830862.043765331</v>
       </c>
       <c r="H1315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>54.43</v>
+      </c>
       <c r="J1315" t="inlineStr"/>
-      <c r="K1315" t="inlineStr"/>
+      <c r="K1315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1315" t="n">
         <v>1</v>
       </c>
@@ -44159,7 +44137,11 @@
       </c>
       <c r="I1316" t="inlineStr"/>
       <c r="J1316" t="inlineStr"/>
-      <c r="K1316" t="inlineStr"/>
+      <c r="K1316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1316" t="n">
         <v>1</v>
       </c>
@@ -44192,7 +44174,11 @@
       </c>
       <c r="I1317" t="inlineStr"/>
       <c r="J1317" t="inlineStr"/>
-      <c r="K1317" t="inlineStr"/>
+      <c r="K1317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1317" t="n">
         <v>1</v>
       </c>
@@ -44225,7 +44211,11 @@
       </c>
       <c r="I1318" t="inlineStr"/>
       <c r="J1318" t="inlineStr"/>
-      <c r="K1318" t="inlineStr"/>
+      <c r="K1318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1318" t="n">
         <v>1</v>
       </c>
@@ -44258,7 +44248,11 @@
       </c>
       <c r="I1319" t="inlineStr"/>
       <c r="J1319" t="inlineStr"/>
-      <c r="K1319" t="inlineStr"/>
+      <c r="K1319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1319" t="n">
         <v>1</v>
       </c>
@@ -44291,7 +44285,11 @@
       </c>
       <c r="I1320" t="inlineStr"/>
       <c r="J1320" t="inlineStr"/>
-      <c r="K1320" t="inlineStr"/>
+      <c r="K1320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1320" t="n">
         <v>1</v>
       </c>
@@ -44320,11 +44318,17 @@
         <v>-1814259.766265331</v>
       </c>
       <c r="H1321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>54.52</v>
+      </c>
       <c r="J1321" t="inlineStr"/>
-      <c r="K1321" t="inlineStr"/>
+      <c r="K1321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1321" t="n">
         <v>1</v>
       </c>
@@ -44357,7 +44361,11 @@
       </c>
       <c r="I1322" t="inlineStr"/>
       <c r="J1322" t="inlineStr"/>
-      <c r="K1322" t="inlineStr"/>
+      <c r="K1322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1322" t="n">
         <v>1</v>
       </c>
@@ -44390,7 +44398,11 @@
       </c>
       <c r="I1323" t="inlineStr"/>
       <c r="J1323" t="inlineStr"/>
-      <c r="K1323" t="inlineStr"/>
+      <c r="K1323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1323" t="n">
         <v>1</v>
       </c>
@@ -44423,7 +44435,11 @@
       </c>
       <c r="I1324" t="inlineStr"/>
       <c r="J1324" t="inlineStr"/>
-      <c r="K1324" t="inlineStr"/>
+      <c r="K1324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1324" t="n">
         <v>1</v>
       </c>
@@ -44456,7 +44472,11 @@
       </c>
       <c r="I1325" t="inlineStr"/>
       <c r="J1325" t="inlineStr"/>
-      <c r="K1325" t="inlineStr"/>
+      <c r="K1325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1325" t="n">
         <v>1</v>
       </c>
@@ -44489,7 +44509,11 @@
       </c>
       <c r="I1326" t="inlineStr"/>
       <c r="J1326" t="inlineStr"/>
-      <c r="K1326" t="inlineStr"/>
+      <c r="K1326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1326" t="n">
         <v>1</v>
       </c>
@@ -44522,7 +44546,11 @@
       </c>
       <c r="I1327" t="inlineStr"/>
       <c r="J1327" t="inlineStr"/>
-      <c r="K1327" t="inlineStr"/>
+      <c r="K1327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1327" t="n">
         <v>1</v>
       </c>
@@ -44551,11 +44579,17 @@
         <v>-1762074.280428807</v>
       </c>
       <c r="H1328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>54.82</v>
+      </c>
       <c r="J1328" t="inlineStr"/>
-      <c r="K1328" t="inlineStr"/>
+      <c r="K1328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1328" t="n">
         <v>1</v>
       </c>
@@ -44588,7 +44622,11 @@
       </c>
       <c r="I1329" t="inlineStr"/>
       <c r="J1329" t="inlineStr"/>
-      <c r="K1329" t="inlineStr"/>
+      <c r="K1329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1329" t="n">
         <v>1</v>
       </c>
@@ -44621,7 +44659,11 @@
       </c>
       <c r="I1330" t="inlineStr"/>
       <c r="J1330" t="inlineStr"/>
-      <c r="K1330" t="inlineStr"/>
+      <c r="K1330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1330" t="n">
         <v>1</v>
       </c>
@@ -44654,7 +44696,11 @@
       </c>
       <c r="I1331" t="inlineStr"/>
       <c r="J1331" t="inlineStr"/>
-      <c r="K1331" t="inlineStr"/>
+      <c r="K1331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1331" t="n">
         <v>1</v>
       </c>
@@ -44687,7 +44733,11 @@
       </c>
       <c r="I1332" t="inlineStr"/>
       <c r="J1332" t="inlineStr"/>
-      <c r="K1332" t="inlineStr"/>
+      <c r="K1332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1332" t="n">
         <v>1</v>
       </c>
@@ -44720,7 +44770,11 @@
       </c>
       <c r="I1333" t="inlineStr"/>
       <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr"/>
+      <c r="K1333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1333" t="n">
         <v>1</v>
       </c>
@@ -44753,7 +44807,11 @@
       </c>
       <c r="I1334" t="inlineStr"/>
       <c r="J1334" t="inlineStr"/>
-      <c r="K1334" t="inlineStr"/>
+      <c r="K1334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1334" t="n">
         <v>1</v>
       </c>
@@ -44786,7 +44844,11 @@
       </c>
       <c r="I1335" t="inlineStr"/>
       <c r="J1335" t="inlineStr"/>
-      <c r="K1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1335" t="n">
         <v>1</v>
       </c>
@@ -44819,7 +44881,11 @@
       </c>
       <c r="I1336" t="inlineStr"/>
       <c r="J1336" t="inlineStr"/>
-      <c r="K1336" t="inlineStr"/>
+      <c r="K1336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1336" t="n">
         <v>1</v>
       </c>
@@ -44852,7 +44918,11 @@
       </c>
       <c r="I1337" t="inlineStr"/>
       <c r="J1337" t="inlineStr"/>
-      <c r="K1337" t="inlineStr"/>
+      <c r="K1337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1337" t="n">
         <v>1</v>
       </c>
@@ -44885,7 +44955,11 @@
       </c>
       <c r="I1338" t="inlineStr"/>
       <c r="J1338" t="inlineStr"/>
-      <c r="K1338" t="inlineStr"/>
+      <c r="K1338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1338" t="n">
         <v>1</v>
       </c>
@@ -44918,7 +44992,11 @@
       </c>
       <c r="I1339" t="inlineStr"/>
       <c r="J1339" t="inlineStr"/>
-      <c r="K1339" t="inlineStr"/>
+      <c r="K1339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1339" t="n">
         <v>1</v>
       </c>
@@ -44951,7 +45029,11 @@
       </c>
       <c r="I1340" t="inlineStr"/>
       <c r="J1340" t="inlineStr"/>
-      <c r="K1340" t="inlineStr"/>
+      <c r="K1340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1340" t="n">
         <v>1</v>
       </c>
@@ -44984,7 +45066,11 @@
       </c>
       <c r="I1341" t="inlineStr"/>
       <c r="J1341" t="inlineStr"/>
-      <c r="K1341" t="inlineStr"/>
+      <c r="K1341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1341" t="n">
         <v>1</v>
       </c>
@@ -45017,7 +45103,11 @@
       </c>
       <c r="I1342" t="inlineStr"/>
       <c r="J1342" t="inlineStr"/>
-      <c r="K1342" t="inlineStr"/>
+      <c r="K1342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1342" t="n">
         <v>1</v>
       </c>
@@ -45050,7 +45140,11 @@
       </c>
       <c r="I1343" t="inlineStr"/>
       <c r="J1343" t="inlineStr"/>
-      <c r="K1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1343" t="n">
         <v>1</v>
       </c>
@@ -45083,7 +45177,11 @@
       </c>
       <c r="I1344" t="inlineStr"/>
       <c r="J1344" t="inlineStr"/>
-      <c r="K1344" t="inlineStr"/>
+      <c r="K1344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1344" t="n">
         <v>1</v>
       </c>
@@ -45116,7 +45214,11 @@
       </c>
       <c r="I1345" t="inlineStr"/>
       <c r="J1345" t="inlineStr"/>
-      <c r="K1345" t="inlineStr"/>
+      <c r="K1345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1345" t="n">
         <v>1</v>
       </c>
@@ -45149,7 +45251,11 @@
       </c>
       <c r="I1346" t="inlineStr"/>
       <c r="J1346" t="inlineStr"/>
-      <c r="K1346" t="inlineStr"/>
+      <c r="K1346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1346" t="n">
         <v>1</v>
       </c>
@@ -45182,7 +45288,11 @@
       </c>
       <c r="I1347" t="inlineStr"/>
       <c r="J1347" t="inlineStr"/>
-      <c r="K1347" t="inlineStr"/>
+      <c r="K1347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1347" t="n">
         <v>1</v>
       </c>
@@ -45215,7 +45325,11 @@
       </c>
       <c r="I1348" t="inlineStr"/>
       <c r="J1348" t="inlineStr"/>
-      <c r="K1348" t="inlineStr"/>
+      <c r="K1348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1348" t="n">
         <v>1</v>
       </c>
@@ -45248,7 +45362,11 @@
       </c>
       <c r="I1349" t="inlineStr"/>
       <c r="J1349" t="inlineStr"/>
-      <c r="K1349" t="inlineStr"/>
+      <c r="K1349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1349" t="n">
         <v>1</v>
       </c>
@@ -45281,7 +45399,11 @@
       </c>
       <c r="I1350" t="inlineStr"/>
       <c r="J1350" t="inlineStr"/>
-      <c r="K1350" t="inlineStr"/>
+      <c r="K1350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1350" t="n">
         <v>1</v>
       </c>
@@ -45314,7 +45436,11 @@
       </c>
       <c r="I1351" t="inlineStr"/>
       <c r="J1351" t="inlineStr"/>
-      <c r="K1351" t="inlineStr"/>
+      <c r="K1351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1351" t="n">
         <v>1</v>
       </c>
@@ -45347,7 +45473,11 @@
       </c>
       <c r="I1352" t="inlineStr"/>
       <c r="J1352" t="inlineStr"/>
-      <c r="K1352" t="inlineStr"/>
+      <c r="K1352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1352" t="n">
         <v>1</v>
       </c>
@@ -45380,7 +45510,11 @@
       </c>
       <c r="I1353" t="inlineStr"/>
       <c r="J1353" t="inlineStr"/>
-      <c r="K1353" t="inlineStr"/>
+      <c r="K1353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1353" t="n">
         <v>1</v>
       </c>
@@ -45409,15 +45543,13 @@
         <v>-1820744.573128806</v>
       </c>
       <c r="H1354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1354" t="n">
-        <v>54.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1354" t="inlineStr"/>
       <c r="J1354" t="inlineStr"/>
       <c r="K1354" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1354" t="n">
